--- a/Resource_TestExcelFile.xlsx
+++ b/Resource_TestExcelFile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UConn\1-Subjects\Python\STAT476\CODE\StreamlitApp1Deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3936B9-45EE-4615-94B7-C5E4B3638212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592528C-722E-47F3-BC41-44B248993DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resource_TestCSVFile" sheetId="1" r:id="rId1"/>
+    <sheet name="Resource_TestExcelSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Resource_TestExcelFile.xlsx
+++ b/Resource_TestExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UConn\1-Subjects\Python\STAT476\CODE\StreamlitApp1Deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592528C-722E-47F3-BC41-44B248993DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC82841-B9C4-4FA9-8C39-1DB0E77D38CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,8 +366,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -482,6 +500,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -527,8 +560,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,178 +937,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.28099977925541902</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>-1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.50120971005952297</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2.29739670999406</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.79552987201534997</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>4.2973967099940698</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>2.29739670999406</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>3.73719281884655</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>-3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.469967429425935</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>6.73719281884655</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>3.73719281884655</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>5.2780316430915697</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>-4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>0.80340933998943398</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>9.2780316430915697</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>5.2780316430915697</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3818,5 +3872,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>